--- a/data/GenresBNF.xlsx
+++ b/data/GenresBNF.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13610" windowHeight="4840"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A95:I107"/>
 </workbook>
 </file>
 
@@ -979,8 +980,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1054,6 +1055,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1100,7 +1109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1132,9 +1141,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,6 +1176,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1341,22 +1352,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1368,7 +1379,7 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1380,7 +1391,7 @@
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="30.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1392,7 +1403,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1415,7 @@
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1427,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1">
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1428,7 +1439,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1">
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -1440,7 +1451,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1452,7 +1463,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1">
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1464,7 +1475,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1476,7 +1487,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1">
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -1488,7 +1499,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
         <v>29</v>
       </c>
@@ -1500,7 +1511,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="45.75" thickBot="1">
+    <row r="13" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1512,7 +1523,7 @@
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1">
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1524,7 +1535,7 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1536,7 +1547,7 @@
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1">
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
         <v>40</v>
       </c>
@@ -1546,7 +1557,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
         <v>42</v>
       </c>
@@ -1558,7 +1569,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="30.75" thickBot="1">
+    <row r="18" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
         <v>45</v>
       </c>
@@ -1570,7 +1581,7 @@
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
         <v>48</v>
       </c>
@@ -1582,7 +1593,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1605,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30.75" thickBot="1">
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
         <v>54</v>
       </c>
@@ -1606,7 +1617,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2" t="s">
         <v>57</v>
       </c>
@@ -1618,7 +1629,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1">
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
@@ -1630,7 +1641,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1">
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1642,7 +1653,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1">
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
         <v>66</v>
       </c>
@@ -1654,7 +1665,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1">
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1666,7 +1677,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1">
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="2" t="s">
         <v>72</v>
       </c>
@@ -1678,7 +1689,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="30.75" thickBot="1">
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
         <v>78</v>
       </c>
@@ -1702,7 +1713,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1">
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="2" t="s">
         <v>81</v>
       </c>
@@ -1714,7 +1725,7 @@
       </c>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1">
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="2" t="s">
         <v>84</v>
       </c>
@@ -1726,7 +1737,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1">
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="2" t="s">
         <v>87</v>
       </c>
@@ -1738,7 +1749,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" ht="30.75" thickBot="1">
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="2" t="s">
         <v>90</v>
       </c>
@@ -1750,7 +1761,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="30.75" thickBot="1">
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="2" t="s">
         <v>93</v>
       </c>
@@ -1762,7 +1773,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1">
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -1774,7 +1785,7 @@
       </c>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1">
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="2" t="s">
         <v>99</v>
       </c>
@@ -1786,7 +1797,7 @@
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1">
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
         <v>102</v>
       </c>
@@ -1798,7 +1809,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1">
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
         <v>105</v>
       </c>
@@ -1806,7 +1817,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1">
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="2" t="s">
         <v>106</v>
       </c>
@@ -1818,7 +1829,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1">
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>109</v>
       </c>
@@ -1830,7 +1841,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1">
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2" t="s">
         <v>112</v>
       </c>
@@ -1842,7 +1853,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
         <v>115</v>
       </c>
@@ -1854,7 +1865,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1">
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
         <v>118</v>
       </c>
@@ -1866,7 +1877,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1">
+    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
         <v>121</v>
       </c>
@@ -1878,7 +1889,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1">
+    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
         <v>124</v>
       </c>
@@ -1890,7 +1901,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" ht="30.75" thickBot="1">
+    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
         <v>127</v>
       </c>
@@ -1902,7 +1913,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" ht="30.75" thickBot="1">
+    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
         <v>130</v>
       </c>
@@ -1914,7 +1925,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" ht="30.75" thickBot="1">
+    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
         <v>133</v>
       </c>
@@ -1924,7 +1935,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1">
+    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
         <v>135</v>
       </c>
@@ -1936,7 +1947,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" thickBot="1">
+    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
         <v>138</v>
       </c>
@@ -1948,7 +1959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75" thickBot="1">
+    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
         <v>141</v>
       </c>
@@ -1960,7 +1971,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1">
+    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
         <v>143</v>
       </c>
@@ -1972,7 +1983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1">
+    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
         <v>146</v>
       </c>
@@ -1984,7 +1995,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1">
+    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
         <v>149</v>
       </c>
@@ -1996,7 +2007,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1">
+    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
         <v>152</v>
       </c>
@@ -2008,7 +2019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30.75" thickBot="1">
+    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
         <v>155</v>
       </c>
@@ -2018,7 +2029,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" ht="30.75" thickBot="1">
+    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
         <v>157</v>
       </c>
@@ -2030,7 +2041,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1">
+    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
         <v>160</v>
       </c>
@@ -2042,7 +2053,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1">
+    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
         <v>163</v>
       </c>
@@ -2054,7 +2065,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" ht="15.75" thickBot="1">
+    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
         <v>166</v>
       </c>
@@ -2066,7 +2077,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1">
+    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
         <v>169</v>
       </c>
@@ -2078,7 +2089,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1">
+    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
         <v>172</v>
       </c>
@@ -2090,7 +2101,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" thickBot="1">
+    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
         <v>175</v>
       </c>
@@ -2102,7 +2113,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1">
+    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
         <v>178</v>
       </c>
@@ -2114,7 +2125,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1">
+    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
         <v>181</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15.75" thickBot="1">
+    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
         <v>184</v>
       </c>
@@ -2138,7 +2149,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1">
+    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
         <v>187</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1">
+    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
         <v>190</v>
       </c>
@@ -2162,7 +2173,7 @@
       </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1">
+    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
         <v>193</v>
       </c>
@@ -2174,7 +2185,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1">
+    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
         <v>196</v>
       </c>
@@ -2186,7 +2197,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="15.75" thickBot="1">
+    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
         <v>199</v>
       </c>
@@ -2198,7 +2209,7 @@
       </c>
       <c r="D71" s="2"/>
     </row>
-    <row r="72" spans="1:4" ht="15.75" thickBot="1">
+    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
         <v>201</v>
       </c>
@@ -2210,7 +2221,7 @@
       </c>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:4" ht="15.75" thickBot="1">
+    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
         <v>203</v>
       </c>
@@ -2222,7 +2233,7 @@
       </c>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" ht="15.75" thickBot="1">
+    <row r="74" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
         <v>206</v>
       </c>
@@ -2234,7 +2245,7 @@
       </c>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" ht="15.75" thickBot="1">
+    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2" t="s">
         <v>209</v>
       </c>
@@ -2246,7 +2257,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1">
+    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2" t="s">
         <v>212</v>
       </c>
@@ -2258,7 +2269,7 @@
       </c>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1">
+    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2" t="s">
         <v>215</v>
       </c>
@@ -2270,7 +2281,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" ht="15.75" thickBot="1">
+    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2" t="s">
         <v>218</v>
       </c>
@@ -2282,7 +2293,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1">
+    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3" t="s">
         <v>221</v>
       </c>
@@ -2294,7 +2305,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" ht="30.75" thickBot="1">
+    <row r="80" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>224</v>
       </c>
@@ -2306,7 +2317,7 @@
       </c>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" ht="30.75" thickBot="1">
+    <row r="81" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="2" t="s">
         <v>226</v>
       </c>
@@ -2318,7 +2329,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1">
+    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="2" t="s">
         <v>229</v>
       </c>
@@ -2330,7 +2341,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1">
+    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="2" t="s">
         <v>232</v>
       </c>
@@ -2342,7 +2353,7 @@
       </c>
       <c r="D83" s="3"/>
     </row>
-    <row r="84" spans="1:4" ht="15.75" thickBot="1">
+    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="2" t="s">
         <v>234</v>
       </c>
@@ -2354,7 +2365,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" ht="30.75" thickBot="1">
+    <row r="85" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="2" t="s">
         <v>237</v>
       </c>
@@ -2366,7 +2377,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" ht="30.75" thickBot="1">
+    <row r="86" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="2" t="s">
         <v>240</v>
       </c>
@@ -2378,7 +2389,7 @@
       </c>
       <c r="D86" s="3"/>
     </row>
-    <row r="87" spans="1:4" ht="30.75" thickBot="1">
+    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="2" t="s">
         <v>246</v>
       </c>
@@ -2390,7 +2401,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1">
+    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="3" t="s">
         <v>249</v>
       </c>
@@ -2402,7 +2413,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" thickBot="1">
+    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="2" t="s">
         <v>252</v>
       </c>
@@ -2414,7 +2425,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" ht="15.75" thickBot="1">
+    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="2" t="s">
         <v>255</v>
       </c>
@@ -2426,7 +2437,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" ht="15.75" thickBot="1">
+    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="2" t="s">
         <v>258</v>
       </c>
@@ -2438,7 +2449,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" ht="15.75" thickBot="1">
+    <row r="92" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="2" t="s">
         <v>261</v>
       </c>
@@ -2450,7 +2461,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15.75" thickBot="1">
+    <row r="93" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>264</v>
       </c>
@@ -2462,7 +2473,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" ht="15.75" thickBot="1">
+    <row r="94" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="2" t="s">
         <v>267</v>
       </c>
@@ -2474,7 +2485,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" ht="15.75" thickBot="1">
+    <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2" t="s">
         <v>270</v>
       </c>
@@ -2486,7 +2497,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" ht="15.75" thickBot="1">
+    <row r="96" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2" t="s">
         <v>273</v>
       </c>
@@ -2498,7 +2509,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" ht="15.75" thickBot="1">
+    <row r="97" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="2" t="s">
         <v>276</v>
       </c>
@@ -2510,7 +2521,7 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" ht="15.75" thickBot="1">
+    <row r="98" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="2" t="s">
         <v>279</v>
       </c>
@@ -2522,7 +2533,7 @@
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" ht="15.75" thickBot="1">
+    <row r="99" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="2" t="s">
         <v>282</v>
       </c>
@@ -2534,7 +2545,7 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" ht="15.75" thickBot="1">
+    <row r="100" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2" t="s">
         <v>285</v>
       </c>
@@ -2546,7 +2557,7 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" ht="30.75" thickBot="1">
+    <row r="101" spans="1:4" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3" t="s">
         <v>288</v>
       </c>
@@ -2558,7 +2569,7 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" ht="15.75" thickBot="1">
+    <row r="102" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="2" t="s">
         <v>291</v>
       </c>
@@ -2570,7 +2581,7 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" ht="30.75" thickBot="1">
+    <row r="103" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="2" t="s">
         <v>294</v>
       </c>
@@ -2582,7 +2593,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" ht="15.75" thickBot="1">
+    <row r="104" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="2" t="s">
         <v>297</v>
       </c>
@@ -2594,7 +2605,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" ht="15.75" thickBot="1">
+    <row r="105" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="2" t="s">
         <v>300</v>
       </c>
@@ -2606,7 +2617,7 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" ht="15.75" thickBot="1">
+    <row r="106" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="2" t="s">
         <v>303</v>
       </c>
@@ -2618,7 +2629,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" ht="15.75" thickBot="1">
+    <row r="107" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="2" t="s">
         <v>306</v>
       </c>
@@ -2630,7 +2641,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" ht="15.75" thickBot="1">
+    <row r="108" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="2" t="s">
         <v>309</v>
       </c>
@@ -2642,7 +2653,7 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" ht="15.75" thickBot="1">
+    <row r="109" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="2" t="s">
         <v>312</v>
       </c>
@@ -2654,7 +2665,7 @@
       </c>
       <c r="D109" s="3"/>
     </row>
-    <row r="110" spans="1:4" ht="15.75" thickBot="1">
+    <row r="110" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
         <v>315</v>
       </c>
@@ -2673,24 +2684,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/GenresBNF.xlsx
+++ b/data/GenresBNF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13610" windowHeight="4840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13280" windowHeight="2770"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1355,8 +1355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
